--- a/spreadsheet/macrofree/azurebotservice_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azurebotservice_checklist.zh-Hant.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure 機器人服務以主動-主動模式運行，適用於全域和區域服務。發生中斷時，無需檢測錯誤或管理服務。Azure 機器人服務在多區域地理體系結構中自動執行自動故障轉移和自動恢復。對於歐盟機器人區域服務，Azure 機器人服務在歐洲境內提供兩個完整的區域，並提供主動/主動複製，以確保冗餘。對於全域機器人服務，所有可用的區域/地理位置都可以作為全球足跡。</t>
+          <t>Azure 機器人服務在全域和區域服務的主動-主動模式下運行。發生中斷時，無需檢測錯誤或管理服務。Azure 機器人服務在多區域地理體系結構中自動執行自動故障轉移和自動恢復。對於歐盟機器人區域服務，Azure 機器人服務在歐洲境內提供兩個完整區域，並提供主動/主動複製，以確保冗餘。對於全球機器人服務，所有可用的區域/地理位置都可以作為全球足跡。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>有一個與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
